--- a/examples/advanced_01/reporting engine input/ObservedData/Hardin_88_PO_100mg_QD_day15_Itra.xlsx
+++ b/examples/advanced_01/reporting engine input/ObservedData/Hardin_88_PO_100mg_QD_day15_Itra.xlsx
@@ -19,10 +19,10 @@
     <t>time  [h]</t>
   </si>
   <si>
-    <t>conc S.D. [mg/l]</t>
+    <t>conc  [mg/l]</t>
   </si>
   <si>
-    <t>conc  [mg/l]</t>
+    <t>conc S.D. [mg/l]</t>
   </si>
 </sst>
 </file>
@@ -142,10 +142,10 @@
         <v>360.5</v>
       </c>
       <c r="B2" s="15">
+        <v>0.13499999046325684</v>
+      </c>
+      <c r="C2" s="15">
         <v>0.02759999968111515</v>
-      </c>
-      <c r="C2" s="15">
-        <v>0.13499999046325684</v>
       </c>
     </row>
     <row r="3">
@@ -153,10 +153,10 @@
         <v>361</v>
       </c>
       <c r="B3" s="15">
+        <v>0.2800000011920929</v>
+      </c>
+      <c r="C3" s="15">
         <v>0.068799994885921478</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0.2800000011920929</v>
       </c>
     </row>
     <row r="4">
@@ -164,10 +164,10 @@
         <v>362</v>
       </c>
       <c r="B4" s="15">
+        <v>0.37600001692771912</v>
+      </c>
+      <c r="C4" s="15">
         <v>0.073300004005432129</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0.37600001692771912</v>
       </c>
     </row>
     <row r="5">
@@ -175,10 +175,10 @@
         <v>363</v>
       </c>
       <c r="B5" s="15">
+        <v>0.38499999046325684</v>
+      </c>
+      <c r="C5" s="15">
         <v>0.095200009644031525</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0.38499999046325684</v>
       </c>
     </row>
     <row r="6">
@@ -186,10 +186,10 @@
         <v>364</v>
       </c>
       <c r="B6" s="15">
+        <v>0.37800002098083496</v>
+      </c>
+      <c r="C6" s="15">
         <v>0.11600000411272049</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0.37800002098083496</v>
       </c>
     </row>
     <row r="7">
@@ -197,10 +197,10 @@
         <v>366</v>
       </c>
       <c r="B7" s="15">
+        <v>0.3229999840259552</v>
+      </c>
+      <c r="C7" s="15">
         <v>0.12200000137090683</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0.3229999840259552</v>
       </c>
     </row>
     <row r="8">
@@ -208,10 +208,10 @@
         <v>368</v>
       </c>
       <c r="B8" s="15">
+        <v>0.25499999523162842</v>
+      </c>
+      <c r="C8" s="15">
         <v>0.097699999809265137</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0.25499999523162842</v>
       </c>
     </row>
     <row r="9">
@@ -219,10 +219,10 @@
         <v>372</v>
       </c>
       <c r="B9" s="15">
+        <v>0.18999999761581421</v>
+      </c>
+      <c r="C9" s="15">
         <v>0.0658000037074089</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0.18999999761581421</v>
       </c>
     </row>
     <row r="10">
@@ -230,10 +230,10 @@
         <v>376</v>
       </c>
       <c r="B10" s="15">
+        <v>0.17000000178813934</v>
+      </c>
+      <c r="C10" s="15">
         <v>0.047699999064207077</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0.17000000178813934</v>
       </c>
     </row>
     <row r="11">
@@ -241,10 +241,10 @@
         <v>384</v>
       </c>
       <c r="B11" s="15">
+        <v>0.12399999797344208</v>
+      </c>
+      <c r="C11" s="15">
         <v>0.052400000393390656</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0.12399999797344208</v>
       </c>
     </row>
     <row r="12">
@@ -252,10 +252,10 @@
         <v>408</v>
       </c>
       <c r="B12" s="15">
+        <v>0.07720000296831131</v>
+      </c>
+      <c r="C12" s="15">
         <v>0.037599999457597733</v>
-      </c>
-      <c r="C12" s="15">
-        <v>0.07720000296831131</v>
       </c>
     </row>
     <row r="13">
@@ -263,10 +263,10 @@
         <v>432</v>
       </c>
       <c r="B13" s="15">
+        <v>0.041100002825260162</v>
+      </c>
+      <c r="C13" s="15">
         <v>0.02370000071823597</v>
-      </c>
-      <c r="C13" s="15">
-        <v>0.041100002825260162</v>
       </c>
     </row>
   </sheetData>
